--- a/Plantillasexcel/modelo303.xlsx
+++ b/Plantillasexcel/modelo303.xlsx
@@ -890,22 +890,54 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="4" fontId="12" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="4" fontId="12" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="4" fontId="12" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="12" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="12" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="4" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -920,34 +952,10 @@
     <xf numFmtId="2" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="12" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="12" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -968,6 +976,15 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="4" fontId="12" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="12" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="12" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -977,37 +994,41 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="6">
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="9"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <condense val="0"/>
@@ -1307,8 +1328,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BU80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="76" zoomScaleNormal="76" workbookViewId="0">
-      <selection activeCell="F53" sqref="F53"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="76" zoomScaleNormal="76" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12:K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1399,13 +1420,13 @@
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
-      <c r="I2" s="126"/>
-      <c r="J2" s="128"/>
+      <c r="I2" s="112"/>
+      <c r="J2" s="113"/>
       <c r="K2" s="2"/>
       <c r="L2" s="51"/>
       <c r="M2" s="51"/>
-      <c r="N2" s="147"/>
-      <c r="O2" s="148"/>
+      <c r="N2" s="116"/>
+      <c r="O2" s="117"/>
       <c r="P2" s="2"/>
       <c r="Q2" s="72"/>
       <c r="R2" s="2"/>
@@ -1476,15 +1497,15 @@
         <v>0</v>
       </c>
       <c r="H3" s="2"/>
-      <c r="I3" s="129"/>
-      <c r="J3" s="131"/>
+      <c r="I3" s="114"/>
+      <c r="J3" s="115"/>
       <c r="K3" s="8"/>
       <c r="L3" s="88" t="s">
         <v>1</v>
       </c>
       <c r="M3" s="51"/>
-      <c r="N3" s="149"/>
-      <c r="O3" s="150"/>
+      <c r="N3" s="118"/>
+      <c r="O3" s="119"/>
       <c r="P3" s="8"/>
       <c r="Q3" s="73"/>
       <c r="R3" s="2"/>
@@ -1699,18 +1720,18 @@
       <c r="BU5" s="52"/>
     </row>
     <row r="6" spans="1:73" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="112"/>
-      <c r="B6" s="141"/>
-      <c r="C6" s="141"/>
-      <c r="D6" s="113"/>
+      <c r="A6" s="120"/>
+      <c r="B6" s="121"/>
+      <c r="C6" s="121"/>
+      <c r="D6" s="122"/>
       <c r="E6" s="59"/>
-      <c r="F6" s="112"/>
-      <c r="G6" s="141"/>
-      <c r="H6" s="141"/>
-      <c r="I6" s="141"/>
-      <c r="J6" s="141"/>
-      <c r="K6" s="141"/>
-      <c r="L6" s="113"/>
+      <c r="F6" s="120"/>
+      <c r="G6" s="121"/>
+      <c r="H6" s="121"/>
+      <c r="I6" s="121"/>
+      <c r="J6" s="121"/>
+      <c r="K6" s="121"/>
+      <c r="L6" s="122"/>
       <c r="M6" s="52"/>
       <c r="N6" s="52"/>
       <c r="O6" s="52"/>
@@ -2172,20 +2193,20 @@
       <c r="E12" s="4">
         <v>1</v>
       </c>
-      <c r="F12" s="118"/>
-      <c r="G12" s="119"/>
+      <c r="F12" s="130"/>
+      <c r="G12" s="131"/>
       <c r="H12" s="58"/>
       <c r="I12" s="4">
         <v>2</v>
       </c>
-      <c r="J12" s="120"/>
-      <c r="K12" s="121"/>
+      <c r="J12" s="132"/>
+      <c r="K12" s="133"/>
       <c r="L12" s="55"/>
       <c r="M12" s="4">
         <v>3</v>
       </c>
-      <c r="N12" s="118"/>
-      <c r="O12" s="119"/>
+      <c r="N12" s="130"/>
+      <c r="O12" s="131"/>
       <c r="P12" s="40"/>
       <c r="Q12" s="73"/>
       <c r="R12" s="52"/>
@@ -2255,20 +2276,20 @@
       <c r="E13" s="4">
         <v>4</v>
       </c>
-      <c r="F13" s="122"/>
-      <c r="G13" s="123"/>
+      <c r="F13" s="149"/>
+      <c r="G13" s="150"/>
       <c r="H13" s="57"/>
       <c r="I13" s="4">
         <v>5</v>
       </c>
-      <c r="J13" s="120"/>
-      <c r="K13" s="121"/>
+      <c r="J13" s="132"/>
+      <c r="K13" s="133"/>
       <c r="L13" s="55"/>
       <c r="M13" s="4">
         <v>6</v>
       </c>
-      <c r="N13" s="118"/>
-      <c r="O13" s="119"/>
+      <c r="N13" s="130"/>
+      <c r="O13" s="131"/>
       <c r="P13" s="40"/>
       <c r="Q13" s="73"/>
       <c r="R13" s="52"/>
@@ -2336,20 +2357,20 @@
       <c r="E14" s="4">
         <v>7</v>
       </c>
-      <c r="F14" s="118"/>
-      <c r="G14" s="119"/>
+      <c r="F14" s="130"/>
+      <c r="G14" s="131"/>
       <c r="H14" s="58"/>
       <c r="I14" s="4">
         <v>8</v>
       </c>
-      <c r="J14" s="120"/>
-      <c r="K14" s="121"/>
+      <c r="J14" s="132"/>
+      <c r="K14" s="133"/>
       <c r="L14" s="55"/>
       <c r="M14" s="4">
         <v>9</v>
       </c>
-      <c r="N14" s="118"/>
-      <c r="O14" s="119"/>
+      <c r="N14" s="130"/>
+      <c r="O14" s="131"/>
       <c r="P14" s="40"/>
       <c r="Q14" s="73"/>
       <c r="R14" s="52"/>
@@ -2492,20 +2513,20 @@
       <c r="E16" s="4">
         <v>10</v>
       </c>
-      <c r="F16" s="118"/>
-      <c r="G16" s="119"/>
+      <c r="F16" s="130"/>
+      <c r="G16" s="131"/>
       <c r="H16" s="58"/>
       <c r="I16" s="4">
         <v>11</v>
       </c>
-      <c r="J16" s="120"/>
-      <c r="K16" s="121"/>
+      <c r="J16" s="132"/>
+      <c r="K16" s="133"/>
       <c r="L16" s="55"/>
       <c r="M16" s="4">
         <v>12</v>
       </c>
-      <c r="N16" s="118"/>
-      <c r="O16" s="119"/>
+      <c r="N16" s="130"/>
+      <c r="O16" s="131"/>
       <c r="P16" s="40"/>
       <c r="Q16" s="73"/>
       <c r="R16" s="52"/>
@@ -2575,8 +2596,8 @@
       <c r="E17" s="4">
         <v>13</v>
       </c>
-      <c r="F17" s="118"/>
-      <c r="G17" s="119"/>
+      <c r="F17" s="130"/>
+      <c r="G17" s="131"/>
       <c r="H17" s="58"/>
       <c r="I17" s="4">
         <v>14</v>
@@ -2587,8 +2608,8 @@
       <c r="M17" s="4">
         <v>15</v>
       </c>
-      <c r="N17" s="118"/>
-      <c r="O17" s="119"/>
+      <c r="N17" s="130"/>
+      <c r="O17" s="131"/>
       <c r="P17" s="40"/>
       <c r="Q17" s="73"/>
       <c r="R17" s="52"/>
@@ -2656,20 +2677,20 @@
       <c r="E18" s="4">
         <v>16</v>
       </c>
-      <c r="F18" s="118"/>
-      <c r="G18" s="119"/>
+      <c r="F18" s="130"/>
+      <c r="G18" s="131"/>
       <c r="H18" s="58"/>
       <c r="I18" s="4">
         <v>17</v>
       </c>
-      <c r="J18" s="120"/>
-      <c r="K18" s="121"/>
+      <c r="J18" s="132"/>
+      <c r="K18" s="133"/>
       <c r="L18" s="55"/>
       <c r="M18" s="4">
         <v>18</v>
       </c>
-      <c r="N18" s="118"/>
-      <c r="O18" s="119"/>
+      <c r="N18" s="130"/>
+      <c r="O18" s="131"/>
       <c r="P18" s="40"/>
       <c r="Q18" s="73"/>
       <c r="R18" s="52"/>
@@ -2814,8 +2835,8 @@
       <c r="E20" s="4">
         <v>19</v>
       </c>
-      <c r="F20" s="112"/>
-      <c r="G20" s="113"/>
+      <c r="F20" s="120"/>
+      <c r="G20" s="122"/>
       <c r="H20" s="53"/>
       <c r="I20" s="93"/>
       <c r="J20" s="93"/>
@@ -2824,8 +2845,8 @@
       <c r="M20" s="4">
         <v>20</v>
       </c>
-      <c r="N20" s="118"/>
-      <c r="O20" s="119"/>
+      <c r="N20" s="130"/>
+      <c r="O20" s="131"/>
       <c r="P20" s="40"/>
       <c r="Q20" s="73"/>
       <c r="R20" s="52"/>
@@ -2978,11 +2999,11 @@
       <c r="M22" s="4">
         <v>21</v>
       </c>
-      <c r="N22" s="124">
+      <c r="N22" s="128">
         <f>N12+N13+N14+N16+N17+N18+N20</f>
         <v>0</v>
       </c>
-      <c r="O22" s="125"/>
+      <c r="O22" s="129"/>
       <c r="P22" s="42"/>
       <c r="Q22" s="73"/>
       <c r="R22" s="52"/>
@@ -3005,8 +3026,8 @@
       <c r="AI22" s="64"/>
       <c r="AJ22" s="64"/>
       <c r="AK22" s="64"/>
-      <c r="AL22" s="146"/>
-      <c r="AM22" s="146"/>
+      <c r="AL22" s="123"/>
+      <c r="AM22" s="123"/>
       <c r="AN22" s="52"/>
       <c r="AO22" s="52"/>
       <c r="AP22" s="52"/>
@@ -3287,14 +3308,14 @@
       <c r="I26" s="4">
         <v>22</v>
       </c>
-      <c r="J26" s="118"/>
-      <c r="K26" s="119"/>
+      <c r="J26" s="130"/>
+      <c r="K26" s="131"/>
       <c r="L26" s="40"/>
       <c r="M26" s="4">
         <v>23</v>
       </c>
-      <c r="N26" s="118"/>
-      <c r="O26" s="119"/>
+      <c r="N26" s="130"/>
+      <c r="O26" s="131"/>
       <c r="P26" s="40"/>
       <c r="Q26" s="73"/>
       <c r="R26" s="52"/>
@@ -3368,14 +3389,14 @@
       <c r="I27" s="4">
         <v>24</v>
       </c>
-      <c r="J27" s="118"/>
-      <c r="K27" s="119"/>
+      <c r="J27" s="130"/>
+      <c r="K27" s="131"/>
       <c r="L27" s="40"/>
       <c r="M27" s="4">
         <v>25</v>
       </c>
-      <c r="N27" s="118"/>
-      <c r="O27" s="119"/>
+      <c r="N27" s="130"/>
+      <c r="O27" s="131"/>
       <c r="P27" s="40"/>
       <c r="Q27" s="73"/>
       <c r="R27" s="52"/>
@@ -3449,14 +3470,14 @@
       <c r="I28" s="4">
         <v>26</v>
       </c>
-      <c r="J28" s="118"/>
-      <c r="K28" s="119"/>
+      <c r="J28" s="130"/>
+      <c r="K28" s="131"/>
       <c r="L28" s="40"/>
       <c r="M28" s="4">
         <v>27</v>
       </c>
-      <c r="N28" s="118"/>
-      <c r="O28" s="119"/>
+      <c r="N28" s="130"/>
+      <c r="O28" s="131"/>
       <c r="P28" s="40"/>
       <c r="Q28" s="73"/>
       <c r="R28" s="52"/>
@@ -3530,14 +3551,14 @@
       <c r="I29" s="4">
         <v>28</v>
       </c>
-      <c r="J29" s="118"/>
-      <c r="K29" s="119"/>
+      <c r="J29" s="130"/>
+      <c r="K29" s="131"/>
       <c r="L29" s="40"/>
       <c r="M29" s="4">
         <v>29</v>
       </c>
-      <c r="N29" s="118"/>
-      <c r="O29" s="119"/>
+      <c r="N29" s="130"/>
+      <c r="O29" s="131"/>
       <c r="P29" s="40"/>
       <c r="Q29" s="73"/>
       <c r="R29" s="52"/>
@@ -3611,14 +3632,14 @@
       <c r="I30" s="4">
         <v>30</v>
       </c>
-      <c r="J30" s="118"/>
-      <c r="K30" s="119"/>
+      <c r="J30" s="130"/>
+      <c r="K30" s="131"/>
       <c r="L30" s="40"/>
       <c r="M30" s="4">
         <v>31</v>
       </c>
-      <c r="N30" s="118"/>
-      <c r="O30" s="119"/>
+      <c r="N30" s="130"/>
+      <c r="O30" s="131"/>
       <c r="P30" s="40"/>
       <c r="Q30" s="73"/>
       <c r="R30" s="52"/>
@@ -3692,14 +3713,14 @@
       <c r="I31" s="4">
         <v>32</v>
       </c>
-      <c r="J31" s="118"/>
-      <c r="K31" s="119"/>
+      <c r="J31" s="130"/>
+      <c r="K31" s="131"/>
       <c r="L31" s="40"/>
       <c r="M31" s="4">
         <v>33</v>
       </c>
-      <c r="N31" s="118"/>
-      <c r="O31" s="119"/>
+      <c r="N31" s="130"/>
+      <c r="O31" s="131"/>
       <c r="P31" s="40"/>
       <c r="Q31" s="73"/>
       <c r="R31" s="52"/>
@@ -3777,8 +3798,8 @@
       <c r="M32" s="4">
         <v>34</v>
       </c>
-      <c r="N32" s="118"/>
-      <c r="O32" s="119"/>
+      <c r="N32" s="130"/>
+      <c r="O32" s="131"/>
       <c r="P32" s="40"/>
       <c r="Q32" s="73"/>
       <c r="R32" s="52"/>
@@ -3856,8 +3877,8 @@
       <c r="M33" s="4">
         <v>35</v>
       </c>
-      <c r="N33" s="118"/>
-      <c r="O33" s="119"/>
+      <c r="N33" s="130"/>
+      <c r="O33" s="131"/>
       <c r="P33" s="40"/>
       <c r="Q33" s="73"/>
       <c r="R33" s="52"/>
@@ -3935,8 +3956,8 @@
       <c r="M34" s="4">
         <v>36</v>
       </c>
-      <c r="N34" s="118"/>
-      <c r="O34" s="119"/>
+      <c r="N34" s="130"/>
+      <c r="O34" s="131"/>
       <c r="P34" s="40"/>
       <c r="Q34" s="73"/>
       <c r="R34" s="52"/>
@@ -4089,11 +4110,11 @@
       <c r="M36" s="4">
         <v>37</v>
       </c>
-      <c r="N36" s="124">
+      <c r="N36" s="128">
         <f>N26+N27+N28+N29+N30+N31+N32+N33+N34</f>
         <v>0</v>
       </c>
-      <c r="O36" s="125"/>
+      <c r="O36" s="129"/>
       <c r="P36" s="66"/>
       <c r="Q36" s="73"/>
       <c r="R36" s="52"/>
@@ -4123,8 +4144,8 @@
       <c r="AP36" s="52"/>
       <c r="AQ36" s="52"/>
       <c r="AR36" s="52"/>
-      <c r="AS36" s="146"/>
-      <c r="AT36" s="146"/>
+      <c r="AS36" s="123"/>
+      <c r="AT36" s="123"/>
       <c r="AU36" s="52"/>
       <c r="AV36" s="52"/>
       <c r="AW36" s="52"/>
@@ -4321,11 +4342,11 @@
       <c r="M39" s="4">
         <v>38</v>
       </c>
-      <c r="N39" s="118">
+      <c r="N39" s="130">
         <f>N22-N36</f>
         <v>0</v>
       </c>
-      <c r="O39" s="119"/>
+      <c r="O39" s="131"/>
       <c r="P39" s="41"/>
       <c r="Q39" s="95"/>
       <c r="R39" s="5"/>
@@ -4347,8 +4368,8 @@
       <c r="AH39" s="62"/>
       <c r="AI39" s="62"/>
       <c r="AJ39" s="62"/>
-      <c r="AK39" s="146"/>
-      <c r="AL39" s="146"/>
+      <c r="AK39" s="123"/>
+      <c r="AL39" s="123"/>
       <c r="AM39" s="52"/>
       <c r="AN39" s="52"/>
       <c r="AO39" s="52"/>
@@ -4409,11 +4430,11 @@
       <c r="M40" s="4">
         <v>40</v>
       </c>
-      <c r="N40" s="118">
+      <c r="N40" s="130">
         <f>N39</f>
         <v>0</v>
       </c>
-      <c r="O40" s="119"/>
+      <c r="O40" s="131"/>
       <c r="P40" s="40"/>
       <c r="Q40" s="73"/>
       <c r="R40" s="5"/>
@@ -4435,8 +4456,8 @@
       <c r="AH40" s="61"/>
       <c r="AI40" s="61"/>
       <c r="AJ40" s="61"/>
-      <c r="AK40" s="146"/>
-      <c r="AL40" s="146"/>
+      <c r="AK40" s="123"/>
+      <c r="AL40" s="123"/>
       <c r="AM40" s="52"/>
       <c r="AN40" s="52"/>
       <c r="AO40" s="52"/>
@@ -4491,8 +4512,8 @@
       <c r="M41" s="4">
         <v>41</v>
       </c>
-      <c r="N41" s="118"/>
-      <c r="O41" s="119"/>
+      <c r="N41" s="130"/>
+      <c r="O41" s="131"/>
       <c r="P41" s="40"/>
       <c r="Q41" s="95"/>
       <c r="R41" s="5"/>
@@ -4514,8 +4535,8 @@
       <c r="AH41" s="61"/>
       <c r="AI41" s="61"/>
       <c r="AJ41" s="61"/>
-      <c r="AK41" s="146"/>
-      <c r="AL41" s="146"/>
+      <c r="AK41" s="123"/>
+      <c r="AL41" s="123"/>
       <c r="AM41" s="52"/>
       <c r="AN41" s="52"/>
       <c r="AO41" s="52"/>
@@ -4563,8 +4584,8 @@
       <c r="F42" s="4">
         <v>42</v>
       </c>
-      <c r="G42" s="118"/>
-      <c r="H42" s="119"/>
+      <c r="G42" s="130"/>
+      <c r="H42" s="131"/>
       <c r="I42" s="40"/>
       <c r="J42" s="8"/>
       <c r="K42" s="8"/>
@@ -4642,8 +4663,8 @@
       <c r="F43" s="4">
         <v>43</v>
       </c>
-      <c r="G43" s="118"/>
-      <c r="H43" s="119"/>
+      <c r="G43" s="130"/>
+      <c r="H43" s="131"/>
       <c r="I43" s="40"/>
       <c r="J43" s="8"/>
       <c r="K43" s="8"/>
@@ -4798,8 +4819,8 @@
       <c r="F45" s="4">
         <v>44</v>
       </c>
-      <c r="G45" s="118"/>
-      <c r="H45" s="119"/>
+      <c r="G45" s="130"/>
+      <c r="H45" s="131"/>
       <c r="I45" s="40"/>
       <c r="J45" s="8"/>
       <c r="K45" s="8"/>
@@ -4961,11 +4982,11 @@
       <c r="M47" s="4">
         <v>46</v>
       </c>
-      <c r="N47" s="124">
+      <c r="N47" s="128">
         <f>N40-N41+D51</f>
         <v>0</v>
       </c>
-      <c r="O47" s="125"/>
+      <c r="O47" s="129"/>
       <c r="P47" s="66"/>
       <c r="Q47" s="96"/>
       <c r="R47" s="67"/>
@@ -4995,8 +5016,8 @@
       <c r="AP47" s="52"/>
       <c r="AQ47" s="52"/>
       <c r="AR47" s="52"/>
-      <c r="AS47" s="143"/>
-      <c r="AT47" s="143"/>
+      <c r="AS47" s="125"/>
+      <c r="AT47" s="125"/>
       <c r="AU47" s="52"/>
       <c r="AV47" s="52"/>
       <c r="AW47" s="52"/>
@@ -5124,8 +5145,8 @@
       <c r="M49" s="4">
         <v>47</v>
       </c>
-      <c r="N49" s="118"/>
-      <c r="O49" s="119"/>
+      <c r="N49" s="130"/>
+      <c r="O49" s="131"/>
       <c r="P49" s="74"/>
       <c r="Q49" s="97"/>
       <c r="R49" s="75"/>
@@ -5155,8 +5176,8 @@
       <c r="AP49" s="52"/>
       <c r="AQ49" s="52"/>
       <c r="AR49" s="52"/>
-      <c r="AS49" s="143"/>
-      <c r="AT49" s="143"/>
+      <c r="AS49" s="125"/>
+      <c r="AT49" s="125"/>
       <c r="AU49" s="52"/>
       <c r="AV49" s="52"/>
       <c r="AW49" s="52"/>
@@ -5284,11 +5305,11 @@
       <c r="M51" s="4">
         <v>48</v>
       </c>
-      <c r="N51" s="124">
+      <c r="N51" s="128">
         <f>N47-N49</f>
         <v>0</v>
       </c>
-      <c r="O51" s="125"/>
+      <c r="O51" s="129"/>
       <c r="P51" s="42"/>
       <c r="Q51" s="98"/>
       <c r="R51" s="64"/>
@@ -5318,8 +5339,8 @@
       <c r="AP51" s="52"/>
       <c r="AQ51" s="52"/>
       <c r="AR51" s="52"/>
-      <c r="AS51" s="143"/>
-      <c r="AT51" s="143"/>
+      <c r="AS51" s="125"/>
+      <c r="AT51" s="125"/>
       <c r="AU51" s="52"/>
       <c r="AV51" s="52"/>
       <c r="AW51" s="52"/>
@@ -5816,13 +5837,13 @@
       <c r="C58" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="D58" s="114" t="str">
+      <c r="D58" s="142" t="str">
         <f>IF(AND(AP2&lt;&gt;"4T",N51&lt;0),ABS(N51),"")</f>
         <v/>
       </c>
-      <c r="E58" s="115"/>
-      <c r="F58" s="115"/>
-      <c r="G58" s="116"/>
+      <c r="E58" s="143"/>
+      <c r="F58" s="143"/>
+      <c r="G58" s="144"/>
       <c r="H58" s="52"/>
       <c r="I58" s="23"/>
       <c r="J58" s="29" t="s">
@@ -5832,12 +5853,12 @@
       <c r="L58" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="M58" s="114" t="str">
+      <c r="M58" s="142" t="str">
         <f>IF(N51&gt;0,N51,"")</f>
         <v/>
       </c>
-      <c r="N58" s="115"/>
-      <c r="O58" s="116"/>
+      <c r="N58" s="143"/>
+      <c r="O58" s="144"/>
       <c r="P58" s="52"/>
       <c r="Q58" s="73"/>
       <c r="R58" s="5"/>
@@ -5863,8 +5884,8 @@
       <c r="AL58" s="67"/>
       <c r="AM58" s="67"/>
       <c r="AN58" s="67"/>
-      <c r="AO58" s="143"/>
-      <c r="AP58" s="143"/>
+      <c r="AO58" s="125"/>
+      <c r="AP58" s="125"/>
       <c r="AQ58" s="27"/>
       <c r="AR58" s="27"/>
       <c r="AS58" s="27"/>
@@ -6055,22 +6076,22 @@
       <c r="A61" s="8"/>
       <c r="B61" s="8"/>
       <c r="C61" s="8"/>
-      <c r="D61" s="144" t="str">
+      <c r="D61" s="126" t="str">
         <f>IF(N51=0,"X","")</f>
         <v>X</v>
       </c>
-      <c r="E61" s="145"/>
+      <c r="E61" s="127"/>
       <c r="F61" s="80"/>
       <c r="G61" s="80"/>
       <c r="H61" s="80"/>
       <c r="I61" s="23"/>
-      <c r="J61" s="126"/>
-      <c r="K61" s="127"/>
-      <c r="L61" s="127"/>
-      <c r="M61" s="127"/>
-      <c r="N61" s="127"/>
-      <c r="O61" s="127"/>
-      <c r="P61" s="128"/>
+      <c r="J61" s="112"/>
+      <c r="K61" s="134"/>
+      <c r="L61" s="134"/>
+      <c r="M61" s="134"/>
+      <c r="N61" s="134"/>
+      <c r="O61" s="134"/>
+      <c r="P61" s="113"/>
       <c r="Q61" s="102"/>
       <c r="R61" s="8"/>
       <c r="S61" s="8"/>
@@ -6087,18 +6108,18 @@
       <c r="AD61" s="52"/>
       <c r="AE61" s="52"/>
       <c r="AF61" s="52"/>
-      <c r="AG61" s="142"/>
-      <c r="AH61" s="142"/>
-      <c r="AI61" s="142"/>
-      <c r="AJ61" s="142"/>
-      <c r="AK61" s="142"/>
-      <c r="AL61" s="142"/>
-      <c r="AM61" s="142"/>
-      <c r="AN61" s="142"/>
-      <c r="AO61" s="142"/>
-      <c r="AP61" s="142"/>
-      <c r="AQ61" s="142"/>
-      <c r="AR61" s="142"/>
+      <c r="AG61" s="124"/>
+      <c r="AH61" s="124"/>
+      <c r="AI61" s="124"/>
+      <c r="AJ61" s="124"/>
+      <c r="AK61" s="124"/>
+      <c r="AL61" s="124"/>
+      <c r="AM61" s="124"/>
+      <c r="AN61" s="124"/>
+      <c r="AO61" s="124"/>
+      <c r="AP61" s="124"/>
+      <c r="AQ61" s="124"/>
+      <c r="AR61" s="124"/>
       <c r="AS61" s="9"/>
       <c r="AT61" s="8"/>
       <c r="AU61" s="52"/>
@@ -6139,13 +6160,13 @@
       <c r="G62" s="8"/>
       <c r="H62" s="8"/>
       <c r="I62" s="23"/>
-      <c r="J62" s="129"/>
-      <c r="K62" s="130"/>
-      <c r="L62" s="130"/>
-      <c r="M62" s="130"/>
-      <c r="N62" s="130"/>
-      <c r="O62" s="130"/>
-      <c r="P62" s="131"/>
+      <c r="J62" s="114"/>
+      <c r="K62" s="135"/>
+      <c r="L62" s="135"/>
+      <c r="M62" s="135"/>
+      <c r="N62" s="135"/>
+      <c r="O62" s="135"/>
+      <c r="P62" s="115"/>
       <c r="Q62" s="103"/>
       <c r="R62" s="8"/>
       <c r="S62" s="8"/>
@@ -6602,12 +6623,12 @@
       <c r="D68" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="E68" s="114" t="str">
+      <c r="E68" s="142" t="str">
         <f>IF(AND(AP2="4T",N51&lt;0),ABS(N51),"")</f>
         <v/>
       </c>
-      <c r="F68" s="115"/>
-      <c r="G68" s="116"/>
+      <c r="F68" s="143"/>
+      <c r="G68" s="144"/>
       <c r="H68" s="52"/>
       <c r="I68" s="23"/>
       <c r="J68" s="45"/>
@@ -6832,13 +6853,13 @@
       <c r="BU70" s="52"/>
     </row>
     <row r="71" spans="1:73" x14ac:dyDescent="0.3">
-      <c r="A71" s="126"/>
-      <c r="B71" s="127"/>
-      <c r="C71" s="127"/>
-      <c r="D71" s="127"/>
-      <c r="E71" s="127"/>
-      <c r="F71" s="127"/>
-      <c r="G71" s="128"/>
+      <c r="A71" s="112"/>
+      <c r="B71" s="134"/>
+      <c r="C71" s="134"/>
+      <c r="D71" s="134"/>
+      <c r="E71" s="134"/>
+      <c r="F71" s="134"/>
+      <c r="G71" s="113"/>
       <c r="H71" s="21"/>
       <c r="I71" s="23"/>
       <c r="J71" s="26" t="s">
@@ -6909,24 +6930,24 @@
       <c r="BU71" s="52"/>
     </row>
     <row r="72" spans="1:73" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A72" s="129"/>
-      <c r="B72" s="130"/>
-      <c r="C72" s="130"/>
-      <c r="D72" s="130"/>
-      <c r="E72" s="130"/>
-      <c r="F72" s="130"/>
-      <c r="G72" s="131"/>
+      <c r="A72" s="114"/>
+      <c r="B72" s="135"/>
+      <c r="C72" s="135"/>
+      <c r="D72" s="135"/>
+      <c r="E72" s="135"/>
+      <c r="F72" s="135"/>
+      <c r="G72" s="115"/>
       <c r="H72" s="62"/>
       <c r="I72" s="23"/>
       <c r="J72" s="84" t="s">
         <v>64</v>
       </c>
       <c r="K72" s="8"/>
-      <c r="L72" s="138"/>
-      <c r="M72" s="139"/>
-      <c r="N72" s="139"/>
-      <c r="O72" s="139"/>
-      <c r="P72" s="140"/>
+      <c r="L72" s="145"/>
+      <c r="M72" s="146"/>
+      <c r="N72" s="146"/>
+      <c r="O72" s="146"/>
+      <c r="P72" s="147"/>
       <c r="Q72" s="73"/>
       <c r="R72" s="62"/>
       <c r="S72" s="62"/>
@@ -7228,9 +7249,9 @@
       <c r="M76" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="N76" s="132"/>
-      <c r="O76" s="133"/>
-      <c r="P76" s="134"/>
+      <c r="N76" s="136"/>
+      <c r="O76" s="137"/>
+      <c r="P76" s="138"/>
       <c r="Q76" s="15"/>
       <c r="R76" s="52"/>
       <c r="S76" s="52"/>
@@ -7290,15 +7311,15 @@
       <c r="BU76" s="52"/>
     </row>
     <row r="77" spans="1:73" x14ac:dyDescent="0.3">
-      <c r="A77" s="117"/>
-      <c r="B77" s="117"/>
-      <c r="C77" s="117"/>
+      <c r="A77" s="148"/>
+      <c r="B77" s="148"/>
+      <c r="C77" s="148"/>
       <c r="D77" s="38" t="s">
         <v>67</v>
       </c>
       <c r="E77" s="48">
         <f ca="1">DAY(TODAY())</f>
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F77" s="49" t="s">
         <v>68</v>
@@ -7310,17 +7331,17 @@
       <c r="H77" s="38" t="s">
         <v>68</v>
       </c>
-      <c r="I77" s="117">
+      <c r="I77" s="148">
         <f ca="1">YEAR(TODAY())</f>
         <v>2015</v>
       </c>
-      <c r="J77" s="117"/>
-      <c r="K77" s="117"/>
+      <c r="J77" s="148"/>
+      <c r="K77" s="148"/>
       <c r="L77" s="109"/>
       <c r="M77" s="52"/>
-      <c r="N77" s="135"/>
-      <c r="O77" s="136"/>
-      <c r="P77" s="137"/>
+      <c r="N77" s="139"/>
+      <c r="O77" s="140"/>
+      <c r="P77" s="141"/>
       <c r="Q77" s="73"/>
       <c r="R77" s="52"/>
       <c r="S77" s="52"/>
@@ -7572,22 +7593,65 @@
     </row>
   </sheetData>
   <mergeCells count="70">
-    <mergeCell ref="I2:J3"/>
-    <mergeCell ref="N2:O3"/>
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="AK39:AL39"/>
-    <mergeCell ref="AK40:AL40"/>
-    <mergeCell ref="AK41:AL41"/>
-    <mergeCell ref="AS36:AT36"/>
-    <mergeCell ref="AL22:AM22"/>
-    <mergeCell ref="AI61:AR61"/>
-    <mergeCell ref="AO58:AP58"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="N36:O36"/>
+    <mergeCell ref="N34:O34"/>
+    <mergeCell ref="N33:O33"/>
+    <mergeCell ref="N32:O32"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="N26:O26"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="G45:H45"/>
+    <mergeCell ref="N39:O39"/>
+    <mergeCell ref="N40:O40"/>
+    <mergeCell ref="N41:O41"/>
+    <mergeCell ref="N76:P77"/>
+    <mergeCell ref="D58:G58"/>
+    <mergeCell ref="M58:O58"/>
+    <mergeCell ref="L72:P72"/>
+    <mergeCell ref="A71:G72"/>
+    <mergeCell ref="I77:K77"/>
+    <mergeCell ref="E68:G68"/>
+    <mergeCell ref="A77:C77"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="N22:O22"/>
+    <mergeCell ref="N20:O20"/>
+    <mergeCell ref="N31:O31"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="N30:O30"/>
+    <mergeCell ref="N29:O29"/>
+    <mergeCell ref="N28:O28"/>
     <mergeCell ref="D61:E61"/>
     <mergeCell ref="AG61:AH61"/>
     <mergeCell ref="AS47:AT47"/>
     <mergeCell ref="AS49:AT49"/>
     <mergeCell ref="AS51:AT51"/>
     <mergeCell ref="N51:O51"/>
+    <mergeCell ref="J61:P62"/>
+    <mergeCell ref="N47:O47"/>
+    <mergeCell ref="N49:O49"/>
+    <mergeCell ref="AK41:AL41"/>
+    <mergeCell ref="AS36:AT36"/>
+    <mergeCell ref="AL22:AM22"/>
+    <mergeCell ref="AI61:AR61"/>
+    <mergeCell ref="AO58:AP58"/>
+    <mergeCell ref="I2:J3"/>
+    <mergeCell ref="N2:O3"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="AK39:AL39"/>
+    <mergeCell ref="AK40:AL40"/>
     <mergeCell ref="N27:O27"/>
     <mergeCell ref="F6:L6"/>
     <mergeCell ref="N18:O18"/>
@@ -7599,62 +7663,19 @@
     <mergeCell ref="J16:K16"/>
     <mergeCell ref="J18:K18"/>
     <mergeCell ref="F16:G16"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="N22:O22"/>
-    <mergeCell ref="N20:O20"/>
-    <mergeCell ref="N31:O31"/>
-    <mergeCell ref="J31:K31"/>
-    <mergeCell ref="N30:O30"/>
-    <mergeCell ref="N29:O29"/>
-    <mergeCell ref="N28:O28"/>
-    <mergeCell ref="J61:P62"/>
-    <mergeCell ref="N76:P77"/>
-    <mergeCell ref="D58:G58"/>
-    <mergeCell ref="M58:O58"/>
-    <mergeCell ref="L72:P72"/>
-    <mergeCell ref="A71:G72"/>
-    <mergeCell ref="I77:K77"/>
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="G43:H43"/>
-    <mergeCell ref="G45:H45"/>
-    <mergeCell ref="N39:O39"/>
-    <mergeCell ref="N40:O40"/>
-    <mergeCell ref="N41:O41"/>
-    <mergeCell ref="N47:O47"/>
-    <mergeCell ref="N36:O36"/>
-    <mergeCell ref="N34:O34"/>
-    <mergeCell ref="N33:O33"/>
-    <mergeCell ref="N32:O32"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="E68:G68"/>
-    <mergeCell ref="A77:C77"/>
-    <mergeCell ref="N13:O13"/>
-    <mergeCell ref="N12:O12"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="N26:O26"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="N49:O49"/>
   </mergeCells>
   <conditionalFormatting sqref="F12 F14 F16:F18 AI12:AK14 AI16:AK18 N12:N14 N16:N18 U12:W14 P12:P14 U16:W18 P16:P18 AE41:AJ41 N41 P41">
-    <cfRule type="cellIs" dxfId="2" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="1" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L2:N2 M3">
-    <cfRule type="cellIs" dxfId="1" priority="2" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="2" stopIfTrue="1" operator="equal">
       <formula>1900</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J12:J14 L12:L14 J16:J18 L16:L18">
-    <cfRule type="expression" dxfId="0" priority="4" stopIfTrue="1">
+  <conditionalFormatting sqref="L12:L14 J16:J18 L16:L18">
+    <cfRule type="expression" dxfId="3" priority="4" stopIfTrue="1">
       <formula>F12=0</formula>
     </cfRule>
   </conditionalFormatting>
